--- a/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5482A19A-1CDE-4527-9522-37FD699FA162}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0979AF8D-E9FB-4880-B01D-678B89683F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="795" yWindow="1860" windowWidth="21600" windowHeight="11835" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>คำผิด</t>
   </si>
@@ -100,16 +95,25 @@
   <si>
     <t>เนื้อหาผิด</t>
   </si>
+  <si>
+    <t>V1.4.3</t>
+  </si>
+  <si>
+    <t>ณัฐนันท์</t>
+  </si>
+  <si>
+    <t>SRSD ระบบการจัดการตู้คอนเทนเนอร์ (บทที่2)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -218,12 +222,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -236,9 +234,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -254,7 +258,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -552,130 +556,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:24" ht="50.45" customHeight="1">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-    </row>
-    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
+    <row r="3" spans="2:24" ht="51.75" customHeight="1">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44401</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -684,9 +699,11 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="30" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
@@ -711,7 +728,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:24" ht="30" customHeight="1">
       <c r="B6" s="6"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -736,7 +753,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:24" ht="30" customHeight="1">
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -761,7 +778,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:24" ht="30" customHeight="1">
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -786,7 +803,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:24" ht="30" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -811,7 +828,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:24" ht="30" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -836,7 +853,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:24" ht="30" customHeight="1">
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -861,7 +878,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:24" ht="30" customHeight="1">
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -886,7 +903,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:24" ht="30" customHeight="1">
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -911,7 +928,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:24" ht="30" customHeight="1">
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -936,7 +953,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:24" ht="30" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -961,7 +978,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:24" ht="30" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -986,7 +1003,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:24" ht="30" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1011,7 +1028,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:24" ht="30" customHeight="1">
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1036,7 +1053,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:24" ht="30" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1061,7 +1078,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:24" ht="30" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1086,7 +1103,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:24" ht="30" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1111,7 +1128,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:24" ht="30" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1136,7 +1153,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:24" ht="30" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1161,7 +1178,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:24" ht="30" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1186,7 +1203,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:24" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1211,7 +1228,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:24" ht="30" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1236,7 +1253,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:24" ht="30" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1261,7 +1278,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:24" ht="30" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1286,7 +1303,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:24" ht="30" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1311,7 +1328,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:24" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1336,7 +1353,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:24" ht="30" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1361,7 +1378,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:24" ht="30" customHeight="1">
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1386,7 +1403,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:24" ht="30" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1411,7 +1428,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:24" ht="30" customHeight="1">
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1436,7 +1453,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:24" ht="30" customHeight="1">
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1461,7 +1478,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:24" ht="30" customHeight="1">
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1486,7 +1503,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:24" ht="30" customHeight="1">
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1511,7 +1528,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:24" ht="30" customHeight="1">
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1536,7 +1553,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:24" ht="30" customHeight="1">
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1561,7 +1578,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:24" ht="30" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1586,7 +1603,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:24" ht="30" customHeight="1">
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1611,7 +1628,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:24" ht="30" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1636,7 +1653,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:24" ht="30" customHeight="1">
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1661,7 +1678,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:24" ht="30" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1686,7 +1703,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:24" ht="30" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1711,7 +1728,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:24" ht="30" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1736,7 +1753,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:24" ht="30" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1761,7 +1778,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:24" ht="30" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1786,7 +1803,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:24" ht="30" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1811,7 +1828,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:24" ht="30" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1836,7 +1853,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:24" ht="30" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1861,7 +1878,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:24" ht="30" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1886,7 +1903,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:24" ht="30" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1911,7 +1928,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:24" ht="30" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1936,7 +1953,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:24" ht="30" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1961,7 +1978,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:24" ht="30" customHeight="1">
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1986,7 +2003,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:24" ht="30" customHeight="1">
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2011,7 +2028,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:24" ht="30" customHeight="1">
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2036,7 +2053,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:24" ht="30" customHeight="1">
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2061,7 +2078,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:24" ht="30" customHeight="1">
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2086,7 +2103,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:24" ht="30" customHeight="1">
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2111,7 +2128,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:24" ht="30" customHeight="1">
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2136,7 +2153,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:24" ht="30" customHeight="1">
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2161,7 +2178,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:24" ht="30" customHeight="1">
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2186,7 +2203,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:24" ht="30" customHeight="1">
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2211,7 +2228,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:24" ht="30" customHeight="1">
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2236,7 +2253,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:24" ht="30" customHeight="1">
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2261,7 +2278,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:24" ht="30" customHeight="1">
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2286,7 +2303,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:24" ht="30" customHeight="1">
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2311,7 +2328,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:24" ht="30" customHeight="1">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2336,7 +2353,7 @@
       <c r="W70" s="7"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:24" ht="30" customHeight="1">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2361,7 +2378,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:24" ht="30" customHeight="1">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2386,7 +2403,7 @@
       <c r="W72" s="7"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:24" ht="30" customHeight="1">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2411,7 +2428,7 @@
       <c r="W73" s="7"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:24" ht="30" customHeight="1">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2436,7 +2453,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:24" ht="30" customHeight="1">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2461,7 +2478,7 @@
       <c r="W75" s="7"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:24" ht="30" customHeight="1">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2486,7 +2503,7 @@
       <c r="W76" s="7"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:24" ht="30" customHeight="1">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2511,7 +2528,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:24" ht="30" customHeight="1">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2536,7 +2553,7 @@
       <c r="W78" s="7"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:24" ht="30" customHeight="1">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2561,7 +2578,7 @@
       <c r="W79" s="7"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:24" ht="30" customHeight="1">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2586,7 +2603,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:24" ht="30" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2611,7 +2628,7 @@
       <c r="W81" s="7"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:24" ht="30" customHeight="1">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2636,7 +2653,7 @@
       <c r="W82" s="7"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:24" ht="30" customHeight="1">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2661,7 +2678,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:24" ht="30" customHeight="1">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2686,7 +2703,7 @@
       <c r="W84" s="7"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:24" ht="30" customHeight="1">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2711,7 +2728,7 @@
       <c r="W85" s="7"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:24" ht="30" customHeight="1">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2736,7 +2753,7 @@
       <c r="W86" s="7"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:24" ht="30" customHeight="1">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2761,7 +2778,7 @@
       <c r="W87" s="7"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:24" ht="30" customHeight="1">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2786,7 +2803,7 @@
       <c r="W88" s="7"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:24" ht="30" customHeight="1">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2811,7 +2828,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:24" ht="30" customHeight="1">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2836,7 +2853,7 @@
       <c r="W90" s="7"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:24" ht="30" customHeight="1">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2861,7 +2878,7 @@
       <c r="W91" s="7"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:24" ht="30" customHeight="1">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2886,7 +2903,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:24" ht="30" customHeight="1">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2911,7 +2928,7 @@
       <c r="W93" s="7"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:24" ht="30" customHeight="1">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2936,7 +2953,7 @@
       <c r="W94" s="7"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:24" ht="30" customHeight="1">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -2961,7 +2978,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:24" ht="30" customHeight="1">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -2986,7 +3003,7 @@
       <c r="W96" s="7"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:24" ht="30" customHeight="1">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3011,7 +3028,7 @@
       <c r="W97" s="7"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:24" ht="30" customHeight="1">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3036,7 +3053,7 @@
       <c r="W98" s="7"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:24" ht="30" customHeight="1">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3061,7 +3078,7 @@
       <c r="W99" s="7"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:24" ht="30" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3086,7 +3103,7 @@
       <c r="W100" s="7"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:24" ht="30" customHeight="1">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3111,7 +3128,7 @@
       <c r="W101" s="7"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:24" ht="30" customHeight="1">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3136,7 +3153,7 @@
       <c r="W102" s="7"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:24" ht="30" customHeight="1">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3161,7 +3178,7 @@
       <c r="W103" s="7"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:24" ht="30" customHeight="1">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3186,7 +3203,7 @@
       <c r="W104" s="7"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:24" ht="30" customHeight="1">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3211,7 +3228,7 @@
       <c r="W105" s="7"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:24" ht="30" customHeight="1">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3236,7 +3253,7 @@
       <c r="W106" s="7"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:24" ht="30" customHeight="1">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3261,7 +3278,7 @@
       <c r="W107" s="7"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:24" ht="30" customHeight="1">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3286,7 +3303,7 @@
       <c r="W108" s="7"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:24" ht="30" customHeight="1">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3311,7 +3328,7 @@
       <c r="W109" s="7"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:24" ht="30" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3336,7 +3353,7 @@
       <c r="W110" s="7"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:24" ht="30" customHeight="1">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3361,7 +3378,7 @@
       <c r="W111" s="7"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:24" ht="30" customHeight="1">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3386,7 +3403,7 @@
       <c r="W112" s="7"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:24" ht="30" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3411,7 +3428,7 @@
       <c r="W113" s="7"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:24" ht="30" customHeight="1">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3436,7 +3453,7 @@
       <c r="W114" s="7"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:24" ht="30" customHeight="1">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3461,7 +3478,7 @@
       <c r="W115" s="7"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:24" ht="30" customHeight="1">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3486,7 +3503,7 @@
       <c r="W116" s="7"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:24" ht="30" customHeight="1">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3511,7 +3528,7 @@
       <c r="W117" s="7"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:24" ht="30" customHeight="1">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -3536,7 +3553,7 @@
       <c r="W118" s="7"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:24" ht="30" customHeight="1">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -3561,7 +3578,7 @@
       <c r="W119" s="7"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:24" ht="30" customHeight="1">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -3586,7 +3603,7 @@
       <c r="W120" s="7"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:24" ht="30" customHeight="1">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -3611,7 +3628,7 @@
       <c r="W121" s="7"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:24" ht="30" customHeight="1">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -3636,7 +3653,7 @@
       <c r="W122" s="7"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:24" ht="30" customHeight="1">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -3661,7 +3678,7 @@
       <c r="W123" s="7"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:24" ht="30" customHeight="1">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -3686,7 +3703,7 @@
       <c r="W124" s="7"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:24" ht="30" customHeight="1">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -3711,7 +3728,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:24" ht="30" customHeight="1">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -3736,7 +3753,7 @@
       <c r="W126" s="7"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:24" ht="30" customHeight="1">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -3761,7 +3778,7 @@
       <c r="W127" s="7"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:24" ht="30" customHeight="1">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -3786,7 +3803,7 @@
       <c r="W128" s="7"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:24" ht="30" customHeight="1">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -3811,7 +3828,7 @@
       <c r="W129" s="7"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:24" ht="30" customHeight="1">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -3836,7 +3853,7 @@
       <c r="W130" s="7"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:24" ht="30" customHeight="1">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -3861,7 +3878,7 @@
       <c r="W131" s="7"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:24" ht="30" customHeight="1">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -3886,7 +3903,7 @@
       <c r="W132" s="7"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:24" ht="30" customHeight="1">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -3911,7 +3928,7 @@
       <c r="W133" s="7"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:24" ht="30" customHeight="1">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -3936,7 +3953,7 @@
       <c r="W134" s="7"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:24" ht="30" customHeight="1">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -3961,7 +3978,7 @@
       <c r="W135" s="7"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:24" ht="30" customHeight="1">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -3986,7 +4003,7 @@
       <c r="W136" s="7"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:24" ht="30" customHeight="1">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4011,7 +4028,7 @@
       <c r="W137" s="7"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:24" ht="30" customHeight="1">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4036,7 +4053,7 @@
       <c r="W138" s="7"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:24" ht="30" customHeight="1">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4061,7 +4078,7 @@
       <c r="W139" s="7"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:24" ht="30" customHeight="1">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4086,7 +4103,7 @@
       <c r="W140" s="7"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:24" ht="30" customHeight="1">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4111,7 +4128,7 @@
       <c r="W141" s="7"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:24" ht="30" customHeight="1">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4136,106 +4153,95 @@
       <c r="W142" s="7"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:24" ht="30" customHeight="1">
       <c r="B143" s="8"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:24" ht="30" customHeight="1">
       <c r="B144" s="8"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:24" ht="30" customHeight="1">
       <c r="B145" s="8"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:24" ht="30" customHeight="1">
       <c r="B146" s="8"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:24" ht="30" customHeight="1">
       <c r="B147" s="8"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:24" ht="30" customHeight="1">
       <c r="B148" s="8"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:24" ht="30" customHeight="1">
       <c r="B149" s="8"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:24" ht="30" customHeight="1">
       <c r="B150" s="8"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:24" ht="30" customHeight="1">
       <c r="B151" s="8"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="2:24" ht="30" customHeight="1">
       <c r="B152" s="8"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="2:24" ht="30" customHeight="1">
       <c r="B153" s="8"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="2:24" ht="30" customHeight="1">
       <c r="B154" s="8"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="2:24" ht="30" customHeight="1">
       <c r="B155" s="8"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="2:24" ht="30" customHeight="1">
       <c r="B156" s="8"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="2:24" ht="30" customHeight="1">
       <c r="B157" s="8"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="2:24" ht="30" customHeight="1">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="2:24" ht="30" customHeight="1">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="2:24" ht="30" customHeight="1">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="2:2" ht="30" customHeight="1">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="2:2" ht="30" customHeight="1">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="2:2" ht="30" customHeight="1">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="2:2" ht="30" customHeight="1">
       <c r="B166" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4248,6 +4254,17 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nice-\Desktop\Porn\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0979AF8D-E9FB-4880-B01D-678B89683F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EBBB61-BBC8-4437-B65B-50ABE7E37BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1860" windowWidth="21600" windowHeight="11835" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>คำผิด</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>SRSD ระบบการจัดการตู้คอนเทนเนอร์ (บทที่2)</t>
+  </si>
+  <si>
+    <t>วรรัตน์</t>
+  </si>
+  <si>
+    <t>V1.4.2</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,7 +228,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -233,12 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,120 +565,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="40.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.45" customHeight="1">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:24" ht="50.4" customHeight="1">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="51.75" customHeight="1">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
     </row>
     <row r="4" spans="2:24" ht="30" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4">
         <v>44401</v>
@@ -705,28 +714,42 @@
     </row>
     <row r="5" spans="2:24" ht="30" customHeight="1">
       <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44401</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3">
+        <v>17</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="2:24" ht="30" customHeight="1">
       <c r="B6" s="6"/>
@@ -4242,6 +4265,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4254,17 +4288,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EBBB61-BBC8-4437-B65B-50ABE7E37BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A9E5B-7789-4005-9C64-9056F56B546C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>คำผิด</t>
   </si>
@@ -110,16 +119,22 @@
   <si>
     <t>V1.4.2</t>
   </si>
+  <si>
+    <t>SRSD บทที่3 มอดูลตู้คอนเทนเนอร์</t>
+  </si>
+  <si>
+    <t>กิตติพศ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -199,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,13 +246,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,9 +261,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,7 +285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -565,115 +583,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="40.5546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="40.59765625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.69921875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.4" customHeight="1">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="51.75" customHeight="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-    </row>
-    <row r="4" spans="2:24" ht="30" customHeight="1">
+    <row r="3" spans="2:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
@@ -708,11 +726,12 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3">
+      <c r="X4" s="11">
+        <f t="shared" ref="X4:X5" si="0">SUM(F4:W4)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="30" customHeight="1">
+    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
         <v>23</v>
@@ -747,19 +766,32 @@
       <c r="W5" s="3">
         <v>1</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="30" customHeight="1">
-      <c r="B6" s="6"/>
+    <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="4">
+        <v>44426</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -767,16 +799,21 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1">
+      <c r="X6" s="11">
+        <f>SUM(F6:W6)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -801,7 +838,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1">
+    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -826,7 +863,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1">
+    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -851,7 +888,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1">
+    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -876,7 +913,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="2:24" ht="30" customHeight="1">
+    <row r="11" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -901,7 +938,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="2:24" ht="30" customHeight="1">
+    <row r="12" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -926,7 +963,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1">
+    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -951,7 +988,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="2:24" ht="30" customHeight="1">
+    <row r="14" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -976,7 +1013,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1">
+    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1001,7 +1038,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="30" customHeight="1">
+    <row r="16" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1026,7 +1063,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="30" customHeight="1">
+    <row r="17" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1051,7 +1088,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="30" customHeight="1">
+    <row r="18" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1076,7 +1113,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="30" customHeight="1">
+    <row r="19" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1101,7 +1138,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="30" customHeight="1">
+    <row r="20" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1126,7 +1163,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="30" customHeight="1">
+    <row r="21" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1151,7 +1188,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="30" customHeight="1">
+    <row r="22" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1176,7 +1213,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="30" customHeight="1">
+    <row r="23" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1201,7 +1238,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="30" customHeight="1">
+    <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1226,7 +1263,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="30" customHeight="1">
+    <row r="25" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1251,7 +1288,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="30" customHeight="1">
+    <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1276,7 +1313,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" ht="30" customHeight="1">
+    <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1301,7 +1338,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" ht="30" customHeight="1">
+    <row r="28" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1326,7 +1363,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" ht="30" customHeight="1">
+    <row r="29" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1351,7 +1388,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="30" customHeight="1">
+    <row r="30" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1376,7 +1413,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" ht="30" customHeight="1">
+    <row r="31" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1401,7 +1438,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" ht="30" customHeight="1">
+    <row r="32" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1426,7 +1463,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="2:24" ht="30" customHeight="1">
+    <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1451,7 +1488,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="2:24" ht="30" customHeight="1">
+    <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1476,7 +1513,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="2:24" ht="30" customHeight="1">
+    <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1501,7 +1538,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="2:24" ht="30" customHeight="1">
+    <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1526,7 +1563,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="2:24" ht="30" customHeight="1">
+    <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1551,7 +1588,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="30" customHeight="1">
+    <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1576,7 +1613,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="30" customHeight="1">
+    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1601,7 +1638,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="2:24" ht="30" customHeight="1">
+    <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1626,7 +1663,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="2:24" ht="30" customHeight="1">
+    <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1651,7 +1688,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="2:24" ht="30" customHeight="1">
+    <row r="42" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1676,7 +1713,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="2:24" ht="30" customHeight="1">
+    <row r="43" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1701,7 +1738,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="2:24" ht="30" customHeight="1">
+    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1726,7 +1763,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="2:24" ht="30" customHeight="1">
+    <row r="45" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1751,7 +1788,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="2:24" ht="30" customHeight="1">
+    <row r="46" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1776,7 +1813,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="2:24" ht="30" customHeight="1">
+    <row r="47" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1801,7 +1838,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="2:24" ht="30" customHeight="1">
+    <row r="48" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1826,7 +1863,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="2:24" ht="30" customHeight="1">
+    <row r="49" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1851,7 +1888,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="30" customHeight="1">
+    <row r="50" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1876,7 +1913,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="2:24" ht="30" customHeight="1">
+    <row r="51" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1901,7 +1938,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="2:24" ht="30" customHeight="1">
+    <row r="52" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1926,7 +1963,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" ht="30" customHeight="1">
+    <row r="53" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1951,7 +1988,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="2:24" ht="30" customHeight="1">
+    <row r="54" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1976,7 +2013,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="2:24" ht="30" customHeight="1">
+    <row r="55" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2001,7 +2038,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="2:24" ht="30" customHeight="1">
+    <row r="56" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2026,7 +2063,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="2:24" ht="30" customHeight="1">
+    <row r="57" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2051,7 +2088,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" ht="30" customHeight="1">
+    <row r="58" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2076,7 +2113,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="2:24" ht="30" customHeight="1">
+    <row r="59" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2101,7 +2138,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="2:24" ht="30" customHeight="1">
+    <row r="60" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2126,7 +2163,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="2:24" ht="30" customHeight="1">
+    <row r="61" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2151,7 +2188,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="2:24" ht="30" customHeight="1">
+    <row r="62" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2176,7 +2213,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="2:24" ht="30" customHeight="1">
+    <row r="63" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2201,7 +2238,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="2:24" ht="30" customHeight="1">
+    <row r="64" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2226,7 +2263,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="2:24" ht="30" customHeight="1">
+    <row r="65" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2251,7 +2288,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="2:24" ht="30" customHeight="1">
+    <row r="66" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2276,7 +2313,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="2:24" ht="30" customHeight="1">
+    <row r="67" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2301,7 +2338,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="2:24" ht="30" customHeight="1">
+    <row r="68" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2326,7 +2363,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="2:24" ht="30" customHeight="1">
+    <row r="69" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2351,7 +2388,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="2:24" ht="30" customHeight="1">
+    <row r="70" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2376,7 +2413,7 @@
       <c r="W70" s="7"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="2:24" ht="30" customHeight="1">
+    <row r="71" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2401,7 +2438,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="2:24" ht="30" customHeight="1">
+    <row r="72" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2426,7 +2463,7 @@
       <c r="W72" s="7"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="2:24" ht="30" customHeight="1">
+    <row r="73" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2451,7 +2488,7 @@
       <c r="W73" s="7"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="2:24" ht="30" customHeight="1">
+    <row r="74" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2476,7 +2513,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="2:24" ht="30" customHeight="1">
+    <row r="75" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2501,7 +2538,7 @@
       <c r="W75" s="7"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="2:24" ht="30" customHeight="1">
+    <row r="76" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2526,7 +2563,7 @@
       <c r="W76" s="7"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="2:24" ht="30" customHeight="1">
+    <row r="77" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2551,7 +2588,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="2:24" ht="30" customHeight="1">
+    <row r="78" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2576,7 +2613,7 @@
       <c r="W78" s="7"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="2:24" ht="30" customHeight="1">
+    <row r="79" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2601,7 +2638,7 @@
       <c r="W79" s="7"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" ht="30" customHeight="1">
+    <row r="80" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2626,7 +2663,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" ht="30" customHeight="1">
+    <row r="81" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2651,7 +2688,7 @@
       <c r="W81" s="7"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" ht="30" customHeight="1">
+    <row r="82" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2676,7 +2713,7 @@
       <c r="W82" s="7"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" ht="30" customHeight="1">
+    <row r="83" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2701,7 +2738,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" ht="30" customHeight="1">
+    <row r="84" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2726,7 +2763,7 @@
       <c r="W84" s="7"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" ht="30" customHeight="1">
+    <row r="85" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2751,7 +2788,7 @@
       <c r="W85" s="7"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" ht="30" customHeight="1">
+    <row r="86" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2776,7 +2813,7 @@
       <c r="W86" s="7"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="2:24" ht="30" customHeight="1">
+    <row r="87" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2801,7 +2838,7 @@
       <c r="W87" s="7"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" ht="30" customHeight="1">
+    <row r="88" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2826,7 +2863,7 @@
       <c r="W88" s="7"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="30" customHeight="1">
+    <row r="89" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2851,7 +2888,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" ht="30" customHeight="1">
+    <row r="90" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2876,7 +2913,7 @@
       <c r="W90" s="7"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" ht="30" customHeight="1">
+    <row r="91" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2901,7 +2938,7 @@
       <c r="W91" s="7"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" ht="30" customHeight="1">
+    <row r="92" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2926,7 +2963,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" ht="30" customHeight="1">
+    <row r="93" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2951,7 +2988,7 @@
       <c r="W93" s="7"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" ht="30" customHeight="1">
+    <row r="94" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -2976,7 +3013,7 @@
       <c r="W94" s="7"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" ht="30" customHeight="1">
+    <row r="95" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3001,7 +3038,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" ht="30" customHeight="1">
+    <row r="96" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3026,7 +3063,7 @@
       <c r="W96" s="7"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" ht="30" customHeight="1">
+    <row r="97" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3051,7 +3088,7 @@
       <c r="W97" s="7"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" ht="30" customHeight="1">
+    <row r="98" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3076,7 +3113,7 @@
       <c r="W98" s="7"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="2:24" ht="30" customHeight="1">
+    <row r="99" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3101,7 +3138,7 @@
       <c r="W99" s="7"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="2:24" ht="30" customHeight="1">
+    <row r="100" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3126,7 +3163,7 @@
       <c r="W100" s="7"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="2:24" ht="30" customHeight="1">
+    <row r="101" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3151,7 +3188,7 @@
       <c r="W101" s="7"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="2:24" ht="30" customHeight="1">
+    <row r="102" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3176,7 +3213,7 @@
       <c r="W102" s="7"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="2:24" ht="30" customHeight="1">
+    <row r="103" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3201,7 +3238,7 @@
       <c r="W103" s="7"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="2:24" ht="30" customHeight="1">
+    <row r="104" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3226,7 +3263,7 @@
       <c r="W104" s="7"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="2:24" ht="30" customHeight="1">
+    <row r="105" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3251,7 +3288,7 @@
       <c r="W105" s="7"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" ht="30" customHeight="1">
+    <row r="106" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3276,7 +3313,7 @@
       <c r="W106" s="7"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="2:24" ht="30" customHeight="1">
+    <row r="107" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3301,7 +3338,7 @@
       <c r="W107" s="7"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" ht="30" customHeight="1">
+    <row r="108" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3326,7 +3363,7 @@
       <c r="W108" s="7"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="2:24" ht="30" customHeight="1">
+    <row r="109" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3351,7 +3388,7 @@
       <c r="W109" s="7"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="2:24" ht="30" customHeight="1">
+    <row r="110" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3376,7 +3413,7 @@
       <c r="W110" s="7"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="2:24" ht="30" customHeight="1">
+    <row r="111" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3401,7 +3438,7 @@
       <c r="W111" s="7"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="2:24" ht="30" customHeight="1">
+    <row r="112" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3426,7 +3463,7 @@
       <c r="W112" s="7"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="2:24" ht="30" customHeight="1">
+    <row r="113" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3451,7 +3488,7 @@
       <c r="W113" s="7"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="2:24" ht="30" customHeight="1">
+    <row r="114" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3476,7 +3513,7 @@
       <c r="W114" s="7"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="2:24" ht="30" customHeight="1">
+    <row r="115" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3501,7 +3538,7 @@
       <c r="W115" s="7"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="2:24" ht="30" customHeight="1">
+    <row r="116" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3526,7 +3563,7 @@
       <c r="W116" s="7"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="2:24" ht="30" customHeight="1">
+    <row r="117" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3551,7 +3588,7 @@
       <c r="W117" s="7"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="2:24" ht="30" customHeight="1">
+    <row r="118" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -3576,7 +3613,7 @@
       <c r="W118" s="7"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="2:24" ht="30" customHeight="1">
+    <row r="119" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -3601,7 +3638,7 @@
       <c r="W119" s="7"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="2:24" ht="30" customHeight="1">
+    <row r="120" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -3626,7 +3663,7 @@
       <c r="W120" s="7"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="2:24" ht="30" customHeight="1">
+    <row r="121" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -3651,7 +3688,7 @@
       <c r="W121" s="7"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" ht="30" customHeight="1">
+    <row r="122" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -3676,7 +3713,7 @@
       <c r="W122" s="7"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" ht="30" customHeight="1">
+    <row r="123" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -3701,7 +3738,7 @@
       <c r="W123" s="7"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" ht="30" customHeight="1">
+    <row r="124" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -3726,7 +3763,7 @@
       <c r="W124" s="7"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="2:24" ht="30" customHeight="1">
+    <row r="125" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -3751,7 +3788,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="2:24" ht="30" customHeight="1">
+    <row r="126" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -3776,7 +3813,7 @@
       <c r="W126" s="7"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="2:24" ht="30" customHeight="1">
+    <row r="127" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -3801,7 +3838,7 @@
       <c r="W127" s="7"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="2:24" ht="30" customHeight="1">
+    <row r="128" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -3826,7 +3863,7 @@
       <c r="W128" s="7"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="2:24" ht="30" customHeight="1">
+    <row r="129" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -3851,7 +3888,7 @@
       <c r="W129" s="7"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="2:24" ht="30" customHeight="1">
+    <row r="130" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -3876,7 +3913,7 @@
       <c r="W130" s="7"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="2:24" ht="30" customHeight="1">
+    <row r="131" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -3901,7 +3938,7 @@
       <c r="W131" s="7"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="2:24" ht="30" customHeight="1">
+    <row r="132" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -3926,7 +3963,7 @@
       <c r="W132" s="7"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="2:24" ht="30" customHeight="1">
+    <row r="133" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -3951,7 +3988,7 @@
       <c r="W133" s="7"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="2:24" ht="30" customHeight="1">
+    <row r="134" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -3976,7 +4013,7 @@
       <c r="W134" s="7"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="2:24" ht="30" customHeight="1">
+    <row r="135" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4001,7 +4038,7 @@
       <c r="W135" s="7"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="2:24" ht="30" customHeight="1">
+    <row r="136" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4026,7 +4063,7 @@
       <c r="W136" s="7"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="2:24" ht="30" customHeight="1">
+    <row r="137" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4051,7 +4088,7 @@
       <c r="W137" s="7"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="2:24" ht="30" customHeight="1">
+    <row r="138" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4076,7 +4113,7 @@
       <c r="W138" s="7"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="2:24" ht="30" customHeight="1">
+    <row r="139" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4101,7 +4138,7 @@
       <c r="W139" s="7"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="2:24" ht="30" customHeight="1">
+    <row r="140" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4126,7 +4163,7 @@
       <c r="W140" s="7"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="2:24" ht="30" customHeight="1">
+    <row r="141" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4151,7 +4188,7 @@
       <c r="W141" s="7"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="2:24" ht="30" customHeight="1">
+    <row r="142" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4176,106 +4213,95 @@
       <c r="W142" s="7"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="2:24" ht="30" customHeight="1">
+    <row r="143" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B143" s="8"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="2:24" ht="30" customHeight="1">
+    <row r="144" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B144" s="8"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="2:24" ht="30" customHeight="1">
+    <row r="145" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B145" s="8"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="2:24" ht="30" customHeight="1">
+    <row r="146" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B146" s="8"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="2:24" ht="30" customHeight="1">
+    <row r="147" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B147" s="8"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="2:24" ht="30" customHeight="1">
+    <row r="148" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B148" s="8"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="2:24" ht="30" customHeight="1">
+    <row r="149" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B149" s="8"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="2:24" ht="30" customHeight="1">
+    <row r="150" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B150" s="8"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="2:24" ht="30" customHeight="1">
+    <row r="151" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B151" s="8"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="2:24" ht="30" customHeight="1">
+    <row r="152" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B152" s="8"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="2:24" ht="30" customHeight="1">
+    <row r="153" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B153" s="8"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="2:24" ht="30" customHeight="1">
+    <row r="154" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B154" s="8"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="2:24" ht="30" customHeight="1">
+    <row r="155" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B155" s="8"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="2:24" ht="30" customHeight="1">
+    <row r="156" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B156" s="8"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="2:24" ht="30" customHeight="1">
+    <row r="157" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B157" s="8"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="2:24" ht="30" customHeight="1">
+    <row r="158" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:24" ht="30" customHeight="1">
+    <row r="159" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:24" ht="30" customHeight="1">
+    <row r="160" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1">
+    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1">
+    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1">
+    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1">
+    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1">
+    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1">
+    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B166" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4288,6 +4314,17 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pee20\OneDrive\เดสก์ท็อป\SE3.1\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1A9E5B-7789-4005-9C64-9056F56B546C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A05860AB-CDE2-479E-BCBC-86D0CC20EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>คำผิด</t>
   </si>
@@ -125,16 +125,25 @@
   <si>
     <t>กิตติพศ</t>
   </si>
+  <si>
+    <t xml:space="preserve">SRSD บทที่3 </t>
+  </si>
+  <si>
+    <t>เบญจพล</t>
+  </si>
+  <si>
+    <t>V1.8.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -214,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,7 +258,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -261,15 +279,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -285,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,115 +595,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
   <dimension ref="B2:X166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="1"/>
-    <col min="2" max="2" width="40.59765625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.69921875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="40.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="50.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:24" ht="50.4" customHeight="1">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-    </row>
-    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:24" ht="51.75" customHeight="1">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
@@ -731,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:24" ht="30" customHeight="1">
       <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
         <v>23</v>
@@ -771,7 +783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:24" ht="30" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
@@ -813,7 +825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:24" ht="30" customHeight="1">
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -838,12 +850,22 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+    <row r="8" spans="2:24" ht="30" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44431</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -855,15 +877,19 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="X8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="30" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -888,7 +914,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:24" ht="30" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -913,7 +939,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:24" ht="30" customHeight="1">
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -938,7 +964,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:24" ht="30" customHeight="1">
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -963,7 +989,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:24" ht="30" customHeight="1">
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -988,7 +1014,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:24" ht="30" customHeight="1">
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1013,7 +1039,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:24" ht="30" customHeight="1">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1038,7 +1064,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:24" ht="30" customHeight="1">
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1063,7 +1089,7 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
-    <row r="17" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:24" ht="30" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1088,7 +1114,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:24" ht="30" customHeight="1">
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1113,7 +1139,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:24" ht="30" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1138,7 +1164,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:24" ht="30" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1163,7 +1189,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:24" ht="30" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1188,7 +1214,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:24" ht="30" customHeight="1">
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1213,7 +1239,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:24" ht="30" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1238,7 +1264,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:24" ht="30" customHeight="1">
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1263,7 +1289,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:24" ht="30" customHeight="1">
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1288,7 +1314,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:24" ht="30" customHeight="1">
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1313,7 +1339,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:24" ht="30" customHeight="1">
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1338,7 +1364,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:24" ht="30" customHeight="1">
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1363,7 +1389,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:24" ht="30" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1388,7 +1414,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:24" ht="30" customHeight="1">
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1413,7 +1439,7 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:24" ht="30" customHeight="1">
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1438,7 +1464,7 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:24" ht="30" customHeight="1">
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1463,7 +1489,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:24" ht="30" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1488,7 +1514,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:24" ht="30" customHeight="1">
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1513,7 +1539,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:24" ht="30" customHeight="1">
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1538,7 +1564,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:24" ht="30" customHeight="1">
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1563,7 +1589,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:24" ht="30" customHeight="1">
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1588,7 +1614,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:24" ht="30" customHeight="1">
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1613,7 +1639,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:24" ht="30" customHeight="1">
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1638,7 +1664,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
     </row>
-    <row r="40" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:24" ht="30" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1663,7 +1689,7 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
     </row>
-    <row r="41" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:24" ht="30" customHeight="1">
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1688,7 +1714,7 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
     </row>
-    <row r="42" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:24" ht="30" customHeight="1">
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1713,7 +1739,7 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
     </row>
-    <row r="43" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="2:24" ht="30" customHeight="1">
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1738,7 +1764,7 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
     </row>
-    <row r="44" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="2:24" ht="30" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1763,7 +1789,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
     </row>
-    <row r="45" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="45" spans="2:24" ht="30" customHeight="1">
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1788,7 +1814,7 @@
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
     </row>
-    <row r="46" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="2:24" ht="30" customHeight="1">
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1813,7 +1839,7 @@
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
     </row>
-    <row r="47" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="47" spans="2:24" ht="30" customHeight="1">
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1838,7 +1864,7 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
     </row>
-    <row r="48" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="48" spans="2:24" ht="30" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1863,7 +1889,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
     </row>
-    <row r="49" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="49" spans="2:24" ht="30" customHeight="1">
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1888,7 +1914,7 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
     </row>
-    <row r="50" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="50" spans="2:24" ht="30" customHeight="1">
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1913,7 +1939,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
     </row>
-    <row r="51" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="51" spans="2:24" ht="30" customHeight="1">
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1938,7 +1964,7 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="52" spans="2:24" ht="30" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1963,7 +1989,7 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
     </row>
-    <row r="53" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="53" spans="2:24" ht="30" customHeight="1">
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1988,7 +2014,7 @@
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="54" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="2:24" ht="30" customHeight="1">
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2013,7 +2039,7 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
     </row>
-    <row r="55" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="2:24" ht="30" customHeight="1">
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2038,7 +2064,7 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
     </row>
-    <row r="56" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="2:24" ht="30" customHeight="1">
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2063,7 +2089,7 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
     </row>
-    <row r="57" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="2:24" ht="30" customHeight="1">
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2088,7 +2114,7 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="2:24" ht="30" customHeight="1">
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2113,7 +2139,7 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
     </row>
-    <row r="59" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="2:24" ht="30" customHeight="1">
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2138,7 +2164,7 @@
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
     </row>
-    <row r="60" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="2:24" ht="30" customHeight="1">
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2163,7 +2189,7 @@
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
     </row>
-    <row r="61" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="2:24" ht="30" customHeight="1">
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2188,7 +2214,7 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
     </row>
-    <row r="62" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:24" ht="30" customHeight="1">
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2213,7 +2239,7 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
     </row>
-    <row r="63" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="63" spans="2:24" ht="30" customHeight="1">
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2238,7 +2264,7 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="64" spans="2:24" ht="30" customHeight="1">
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2263,7 +2289,7 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
     </row>
-    <row r="65" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:24" ht="30" customHeight="1">
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2288,7 +2314,7 @@
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
     </row>
-    <row r="66" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:24" ht="30" customHeight="1">
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2313,7 +2339,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
     </row>
-    <row r="67" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:24" ht="30" customHeight="1">
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2338,7 +2364,7 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
     </row>
-    <row r="68" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:24" ht="30" customHeight="1">
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2363,7 +2389,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="3"/>
     </row>
-    <row r="69" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:24" ht="30" customHeight="1">
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2388,7 +2414,7 @@
       <c r="W69" s="7"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:24" ht="30" customHeight="1">
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2413,7 +2439,7 @@
       <c r="W70" s="7"/>
       <c r="X70" s="3"/>
     </row>
-    <row r="71" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="71" spans="2:24" ht="30" customHeight="1">
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2438,7 +2464,7 @@
       <c r="W71" s="7"/>
       <c r="X71" s="3"/>
     </row>
-    <row r="72" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="72" spans="2:24" ht="30" customHeight="1">
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2463,7 +2489,7 @@
       <c r="W72" s="7"/>
       <c r="X72" s="3"/>
     </row>
-    <row r="73" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="73" spans="2:24" ht="30" customHeight="1">
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2488,7 +2514,7 @@
       <c r="W73" s="7"/>
       <c r="X73" s="3"/>
     </row>
-    <row r="74" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="74" spans="2:24" ht="30" customHeight="1">
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2513,7 +2539,7 @@
       <c r="W74" s="7"/>
       <c r="X74" s="3"/>
     </row>
-    <row r="75" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="75" spans="2:24" ht="30" customHeight="1">
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2538,7 +2564,7 @@
       <c r="W75" s="7"/>
       <c r="X75" s="3"/>
     </row>
-    <row r="76" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="76" spans="2:24" ht="30" customHeight="1">
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2563,7 +2589,7 @@
       <c r="W76" s="7"/>
       <c r="X76" s="3"/>
     </row>
-    <row r="77" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="77" spans="2:24" ht="30" customHeight="1">
       <c r="B77" s="6"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2588,7 +2614,7 @@
       <c r="W77" s="7"/>
       <c r="X77" s="3"/>
     </row>
-    <row r="78" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="78" spans="2:24" ht="30" customHeight="1">
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2613,7 +2639,7 @@
       <c r="W78" s="7"/>
       <c r="X78" s="3"/>
     </row>
-    <row r="79" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="79" spans="2:24" ht="30" customHeight="1">
       <c r="B79" s="6"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2638,7 +2664,7 @@
       <c r="W79" s="7"/>
       <c r="X79" s="3"/>
     </row>
-    <row r="80" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="80" spans="2:24" ht="30" customHeight="1">
       <c r="B80" s="6"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2663,7 +2689,7 @@
       <c r="W80" s="7"/>
       <c r="X80" s="3"/>
     </row>
-    <row r="81" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="81" spans="2:24" ht="30" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2688,7 +2714,7 @@
       <c r="W81" s="7"/>
       <c r="X81" s="3"/>
     </row>
-    <row r="82" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="82" spans="2:24" ht="30" customHeight="1">
       <c r="B82" s="6"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2713,7 +2739,7 @@
       <c r="W82" s="7"/>
       <c r="X82" s="3"/>
     </row>
-    <row r="83" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="83" spans="2:24" ht="30" customHeight="1">
       <c r="B83" s="6"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -2738,7 +2764,7 @@
       <c r="W83" s="7"/>
       <c r="X83" s="3"/>
     </row>
-    <row r="84" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="84" spans="2:24" ht="30" customHeight="1">
       <c r="B84" s="6"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -2763,7 +2789,7 @@
       <c r="W84" s="7"/>
       <c r="X84" s="3"/>
     </row>
-    <row r="85" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="85" spans="2:24" ht="30" customHeight="1">
       <c r="B85" s="6"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -2788,7 +2814,7 @@
       <c r="W85" s="7"/>
       <c r="X85" s="3"/>
     </row>
-    <row r="86" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="86" spans="2:24" ht="30" customHeight="1">
       <c r="B86" s="6"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -2813,7 +2839,7 @@
       <c r="W86" s="7"/>
       <c r="X86" s="3"/>
     </row>
-    <row r="87" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="87" spans="2:24" ht="30" customHeight="1">
       <c r="B87" s="6"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -2838,7 +2864,7 @@
       <c r="W87" s="7"/>
       <c r="X87" s="3"/>
     </row>
-    <row r="88" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="88" spans="2:24" ht="30" customHeight="1">
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -2863,7 +2889,7 @@
       <c r="W88" s="7"/>
       <c r="X88" s="3"/>
     </row>
-    <row r="89" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="89" spans="2:24" ht="30" customHeight="1">
       <c r="B89" s="6"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -2888,7 +2914,7 @@
       <c r="W89" s="7"/>
       <c r="X89" s="3"/>
     </row>
-    <row r="90" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="90" spans="2:24" ht="30" customHeight="1">
       <c r="B90" s="6"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -2913,7 +2939,7 @@
       <c r="W90" s="7"/>
       <c r="X90" s="3"/>
     </row>
-    <row r="91" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="91" spans="2:24" ht="30" customHeight="1">
       <c r="B91" s="6"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -2938,7 +2964,7 @@
       <c r="W91" s="7"/>
       <c r="X91" s="3"/>
     </row>
-    <row r="92" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="92" spans="2:24" ht="30" customHeight="1">
       <c r="B92" s="6"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -2963,7 +2989,7 @@
       <c r="W92" s="7"/>
       <c r="X92" s="3"/>
     </row>
-    <row r="93" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="93" spans="2:24" ht="30" customHeight="1">
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -2988,7 +3014,7 @@
       <c r="W93" s="7"/>
       <c r="X93" s="3"/>
     </row>
-    <row r="94" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="94" spans="2:24" ht="30" customHeight="1">
       <c r="B94" s="6"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3013,7 +3039,7 @@
       <c r="W94" s="7"/>
       <c r="X94" s="3"/>
     </row>
-    <row r="95" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="95" spans="2:24" ht="30" customHeight="1">
       <c r="B95" s="6"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3038,7 +3064,7 @@
       <c r="W95" s="7"/>
       <c r="X95" s="3"/>
     </row>
-    <row r="96" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="96" spans="2:24" ht="30" customHeight="1">
       <c r="B96" s="6"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3063,7 +3089,7 @@
       <c r="W96" s="7"/>
       <c r="X96" s="3"/>
     </row>
-    <row r="97" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="97" spans="2:24" ht="30" customHeight="1">
       <c r="B97" s="6"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3088,7 +3114,7 @@
       <c r="W97" s="7"/>
       <c r="X97" s="3"/>
     </row>
-    <row r="98" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="98" spans="2:24" ht="30" customHeight="1">
       <c r="B98" s="6"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3113,7 +3139,7 @@
       <c r="W98" s="7"/>
       <c r="X98" s="3"/>
     </row>
-    <row r="99" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="99" spans="2:24" ht="30" customHeight="1">
       <c r="B99" s="6"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3138,7 +3164,7 @@
       <c r="W99" s="7"/>
       <c r="X99" s="3"/>
     </row>
-    <row r="100" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="100" spans="2:24" ht="30" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3163,7 +3189,7 @@
       <c r="W100" s="7"/>
       <c r="X100" s="3"/>
     </row>
-    <row r="101" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="101" spans="2:24" ht="30" customHeight="1">
       <c r="B101" s="6"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3188,7 +3214,7 @@
       <c r="W101" s="7"/>
       <c r="X101" s="3"/>
     </row>
-    <row r="102" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="102" spans="2:24" ht="30" customHeight="1">
       <c r="B102" s="6"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3213,7 +3239,7 @@
       <c r="W102" s="7"/>
       <c r="X102" s="3"/>
     </row>
-    <row r="103" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="103" spans="2:24" ht="30" customHeight="1">
       <c r="B103" s="6"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3238,7 +3264,7 @@
       <c r="W103" s="7"/>
       <c r="X103" s="3"/>
     </row>
-    <row r="104" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="104" spans="2:24" ht="30" customHeight="1">
       <c r="B104" s="6"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3263,7 +3289,7 @@
       <c r="W104" s="7"/>
       <c r="X104" s="3"/>
     </row>
-    <row r="105" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="105" spans="2:24" ht="30" customHeight="1">
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3288,7 +3314,7 @@
       <c r="W105" s="7"/>
       <c r="X105" s="3"/>
     </row>
-    <row r="106" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="106" spans="2:24" ht="30" customHeight="1">
       <c r="B106" s="6"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3313,7 +3339,7 @@
       <c r="W106" s="7"/>
       <c r="X106" s="3"/>
     </row>
-    <row r="107" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="107" spans="2:24" ht="30" customHeight="1">
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3338,7 +3364,7 @@
       <c r="W107" s="7"/>
       <c r="X107" s="3"/>
     </row>
-    <row r="108" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="108" spans="2:24" ht="30" customHeight="1">
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3363,7 +3389,7 @@
       <c r="W108" s="7"/>
       <c r="X108" s="3"/>
     </row>
-    <row r="109" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="109" spans="2:24" ht="30" customHeight="1">
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3388,7 +3414,7 @@
       <c r="W109" s="7"/>
       <c r="X109" s="3"/>
     </row>
-    <row r="110" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="110" spans="2:24" ht="30" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3413,7 +3439,7 @@
       <c r="W110" s="7"/>
       <c r="X110" s="3"/>
     </row>
-    <row r="111" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="111" spans="2:24" ht="30" customHeight="1">
       <c r="B111" s="6"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3438,7 +3464,7 @@
       <c r="W111" s="7"/>
       <c r="X111" s="3"/>
     </row>
-    <row r="112" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="112" spans="2:24" ht="30" customHeight="1">
       <c r="B112" s="6"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3463,7 +3489,7 @@
       <c r="W112" s="7"/>
       <c r="X112" s="3"/>
     </row>
-    <row r="113" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:24" ht="30" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3488,7 +3514,7 @@
       <c r="W113" s="7"/>
       <c r="X113" s="3"/>
     </row>
-    <row r="114" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="114" spans="2:24" ht="30" customHeight="1">
       <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3513,7 +3539,7 @@
       <c r="W114" s="7"/>
       <c r="X114" s="3"/>
     </row>
-    <row r="115" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="115" spans="2:24" ht="30" customHeight="1">
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3538,7 +3564,7 @@
       <c r="W115" s="7"/>
       <c r="X115" s="3"/>
     </row>
-    <row r="116" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="116" spans="2:24" ht="30" customHeight="1">
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3563,7 +3589,7 @@
       <c r="W116" s="7"/>
       <c r="X116" s="3"/>
     </row>
-    <row r="117" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="117" spans="2:24" ht="30" customHeight="1">
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -3588,7 +3614,7 @@
       <c r="W117" s="7"/>
       <c r="X117" s="3"/>
     </row>
-    <row r="118" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="118" spans="2:24" ht="30" customHeight="1">
       <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -3613,7 +3639,7 @@
       <c r="W118" s="7"/>
       <c r="X118" s="3"/>
     </row>
-    <row r="119" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="119" spans="2:24" ht="30" customHeight="1">
       <c r="B119" s="6"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -3638,7 +3664,7 @@
       <c r="W119" s="7"/>
       <c r="X119" s="3"/>
     </row>
-    <row r="120" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="120" spans="2:24" ht="30" customHeight="1">
       <c r="B120" s="6"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -3663,7 +3689,7 @@
       <c r="W120" s="7"/>
       <c r="X120" s="3"/>
     </row>
-    <row r="121" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="121" spans="2:24" ht="30" customHeight="1">
       <c r="B121" s="6"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -3688,7 +3714,7 @@
       <c r="W121" s="7"/>
       <c r="X121" s="3"/>
     </row>
-    <row r="122" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="122" spans="2:24" ht="30" customHeight="1">
       <c r="B122" s="6"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -3713,7 +3739,7 @@
       <c r="W122" s="7"/>
       <c r="X122" s="3"/>
     </row>
-    <row r="123" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="123" spans="2:24" ht="30" customHeight="1">
       <c r="B123" s="6"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -3738,7 +3764,7 @@
       <c r="W123" s="7"/>
       <c r="X123" s="3"/>
     </row>
-    <row r="124" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="124" spans="2:24" ht="30" customHeight="1">
       <c r="B124" s="6"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -3763,7 +3789,7 @@
       <c r="W124" s="7"/>
       <c r="X124" s="3"/>
     </row>
-    <row r="125" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="125" spans="2:24" ht="30" customHeight="1">
       <c r="B125" s="6"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -3788,7 +3814,7 @@
       <c r="W125" s="7"/>
       <c r="X125" s="3"/>
     </row>
-    <row r="126" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="126" spans="2:24" ht="30" customHeight="1">
       <c r="B126" s="6"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -3813,7 +3839,7 @@
       <c r="W126" s="7"/>
       <c r="X126" s="3"/>
     </row>
-    <row r="127" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="127" spans="2:24" ht="30" customHeight="1">
       <c r="B127" s="6"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -3838,7 +3864,7 @@
       <c r="W127" s="7"/>
       <c r="X127" s="3"/>
     </row>
-    <row r="128" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="128" spans="2:24" ht="30" customHeight="1">
       <c r="B128" s="6"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -3863,7 +3889,7 @@
       <c r="W128" s="7"/>
       <c r="X128" s="3"/>
     </row>
-    <row r="129" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="129" spans="2:24" ht="30" customHeight="1">
       <c r="B129" s="6"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -3888,7 +3914,7 @@
       <c r="W129" s="7"/>
       <c r="X129" s="3"/>
     </row>
-    <row r="130" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="130" spans="2:24" ht="30" customHeight="1">
       <c r="B130" s="6"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
@@ -3913,7 +3939,7 @@
       <c r="W130" s="7"/>
       <c r="X130" s="3"/>
     </row>
-    <row r="131" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="131" spans="2:24" ht="30" customHeight="1">
       <c r="B131" s="6"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -3938,7 +3964,7 @@
       <c r="W131" s="7"/>
       <c r="X131" s="3"/>
     </row>
-    <row r="132" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="132" spans="2:24" ht="30" customHeight="1">
       <c r="B132" s="6"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -3963,7 +3989,7 @@
       <c r="W132" s="7"/>
       <c r="X132" s="3"/>
     </row>
-    <row r="133" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="133" spans="2:24" ht="30" customHeight="1">
       <c r="B133" s="6"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -3988,7 +4014,7 @@
       <c r="W133" s="7"/>
       <c r="X133" s="3"/>
     </row>
-    <row r="134" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="134" spans="2:24" ht="30" customHeight="1">
       <c r="B134" s="6"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4013,7 +4039,7 @@
       <c r="W134" s="7"/>
       <c r="X134" s="3"/>
     </row>
-    <row r="135" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:24" ht="30" customHeight="1">
       <c r="B135" s="6"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4038,7 +4064,7 @@
       <c r="W135" s="7"/>
       <c r="X135" s="3"/>
     </row>
-    <row r="136" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="136" spans="2:24" ht="30" customHeight="1">
       <c r="B136" s="6"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
@@ -4063,7 +4089,7 @@
       <c r="W136" s="7"/>
       <c r="X136" s="3"/>
     </row>
-    <row r="137" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="137" spans="2:24" ht="30" customHeight="1">
       <c r="B137" s="6"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4088,7 +4114,7 @@
       <c r="W137" s="7"/>
       <c r="X137" s="3"/>
     </row>
-    <row r="138" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="138" spans="2:24" ht="30" customHeight="1">
       <c r="B138" s="6"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -4113,7 +4139,7 @@
       <c r="W138" s="7"/>
       <c r="X138" s="3"/>
     </row>
-    <row r="139" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="139" spans="2:24" ht="30" customHeight="1">
       <c r="B139" s="6"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4138,7 +4164,7 @@
       <c r="W139" s="7"/>
       <c r="X139" s="3"/>
     </row>
-    <row r="140" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="140" spans="2:24" ht="30" customHeight="1">
       <c r="B140" s="6"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
@@ -4163,7 +4189,7 @@
       <c r="W140" s="7"/>
       <c r="X140" s="3"/>
     </row>
-    <row r="141" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="141" spans="2:24" ht="30" customHeight="1">
       <c r="B141" s="6"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4188,7 +4214,7 @@
       <c r="W141" s="7"/>
       <c r="X141" s="3"/>
     </row>
-    <row r="142" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="142" spans="2:24" ht="30" customHeight="1">
       <c r="B142" s="6"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
@@ -4213,95 +4239,106 @@
       <c r="W142" s="7"/>
       <c r="X142" s="3"/>
     </row>
-    <row r="143" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="143" spans="2:24" ht="30" customHeight="1">
       <c r="B143" s="8"/>
       <c r="X143" s="9"/>
     </row>
-    <row r="144" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:24" ht="30" customHeight="1">
       <c r="B144" s="8"/>
       <c r="X144" s="9"/>
     </row>
-    <row r="145" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="145" spans="2:24" ht="30" customHeight="1">
       <c r="B145" s="8"/>
       <c r="X145" s="9"/>
     </row>
-    <row r="146" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="146" spans="2:24" ht="30" customHeight="1">
       <c r="B146" s="8"/>
       <c r="X146" s="9"/>
     </row>
-    <row r="147" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="147" spans="2:24" ht="30" customHeight="1">
       <c r="B147" s="8"/>
       <c r="X147" s="9"/>
     </row>
-    <row r="148" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="148" spans="2:24" ht="30" customHeight="1">
       <c r="B148" s="8"/>
       <c r="X148" s="9"/>
     </row>
-    <row r="149" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="149" spans="2:24" ht="30" customHeight="1">
       <c r="B149" s="8"/>
       <c r="X149" s="9"/>
     </row>
-    <row r="150" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="150" spans="2:24" ht="30" customHeight="1">
       <c r="B150" s="8"/>
       <c r="X150" s="9"/>
     </row>
-    <row r="151" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="151" spans="2:24" ht="30" customHeight="1">
       <c r="B151" s="8"/>
       <c r="X151" s="9"/>
     </row>
-    <row r="152" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="152" spans="2:24" ht="30" customHeight="1">
       <c r="B152" s="8"/>
       <c r="X152" s="9"/>
     </row>
-    <row r="153" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="153" spans="2:24" ht="30" customHeight="1">
       <c r="B153" s="8"/>
       <c r="X153" s="9"/>
     </row>
-    <row r="154" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="154" spans="2:24" ht="30" customHeight="1">
       <c r="B154" s="8"/>
       <c r="X154" s="9"/>
     </row>
-    <row r="155" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:24" ht="30" customHeight="1">
       <c r="B155" s="8"/>
       <c r="X155" s="9"/>
     </row>
-    <row r="156" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="156" spans="2:24" ht="30" customHeight="1">
       <c r="B156" s="8"/>
       <c r="X156" s="9"/>
     </row>
-    <row r="157" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="157" spans="2:24" ht="30" customHeight="1">
       <c r="B157" s="8"/>
       <c r="X157" s="9"/>
     </row>
-    <row r="158" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="158" spans="2:24" ht="30" customHeight="1">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="159" spans="2:24" ht="30" customHeight="1">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="160" spans="2:24" ht="30" customHeight="1">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="161" spans="2:2" ht="30" customHeight="1">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="162" spans="2:2" ht="30" customHeight="1">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="163" spans="2:2" ht="30" customHeight="1">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="164" spans="2:2" ht="30" customHeight="1">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="165" spans="2:2" ht="30" customHeight="1">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="166" spans="2:2" ht="30" customHeight="1">
       <c r="B166" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4314,17 +4351,6 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
+++ b/ตรวจงาน/รายการตรวจสอบ SRSD.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\team4\ตรวจงาน\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A05860AB-CDE2-479E-BCBC-86D0CC20EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA6AC91-8B8B-4D4E-BF31-C1D0CAA758B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -264,12 +255,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,9 +264,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -297,7 +288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,28 +587,28 @@
   <dimension ref="B2:X166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="40.5546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6328125" style="1"/>
+    <col min="2" max="2" width="40.54296875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="50.4" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="13" t="s">
@@ -650,10 +641,10 @@
       <c r="O2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="17" t="s">
         <v>21</v>
       </c>
       <c r="R2" s="13" t="s">
@@ -679,10 +670,10 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="51.75" customHeight="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -693,8 +684,8 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -912,7 +903,10 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="X9" s="3">
+        <f ca="1">SUM(X4:X9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:24" ht="30" customHeight="1">
       <c r="B10" s="6"/>
@@ -937,7 +931,9 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="X10" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="2:24" ht="30" customHeight="1">
       <c r="B11" s="6"/>
@@ -4328,17 +4324,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -4351,6 +4336,17 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
